--- a/Data/newproductattributes2017_afterpred.xlsx
+++ b/Data/newproductattributes2017_afterpred.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabeldemiguel/Library/Containers/com.microsoft.Excel/Data/Desktop/Ubiqum/Módulo 2/Task 3/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabeldemiguel/Desktop/Ubiqum/Módulo 2/Task 3/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B496976D-0027-D24B-8A05-2211081A5306}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3F433C-AD62-7442-B238-D87CD8483EFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1212,23 +1212,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="9" width="5.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="5.33203125" customWidth="1"/>
     <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" style="10" hidden="1" customWidth="1"/>
-    <col min="15" max="25" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="10.1640625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="11.1640625" style="11" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" style="10" customWidth="1"/>
+    <col min="15" max="25" width="10.83203125" customWidth="1"/>
+    <col min="26" max="26" width="10.1640625" customWidth="1"/>
+    <col min="27" max="27" width="11.1640625" style="11" customWidth="1"/>
     <col min="28" max="28" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.5" style="1" customWidth="1"/>
   </cols>
